--- a/数据整理/stocks/A股/创业板/300919-中伟股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300919-中伟股份.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,79 +22,127 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>213001</t>
+  </si>
+  <si>
     <t>000924</t>
   </si>
   <si>
+    <t>008227</t>
+  </si>
+  <si>
+    <t>008228</t>
+  </si>
+  <si>
+    <t>007581</t>
+  </si>
+  <si>
     <t>007579</t>
   </si>
   <si>
-    <t>213001</t>
-  </si>
-  <si>
-    <t>007581</t>
-  </si>
-  <si>
     <t>002149</t>
   </si>
   <si>
-    <t>008227</t>
-  </si>
-  <si>
-    <t>008228</t>
+    <t>宝盈鸿利收益灵活配置混合A</t>
   </si>
   <si>
     <t>宝盈先进制造灵活配置混合A</t>
   </si>
   <si>
+    <t>宝盈研究精选混合A</t>
+  </si>
+  <si>
+    <t>宝盈研究精选混合C</t>
+  </si>
+  <si>
+    <t>宝盈鸿利收益灵活配置混合C</t>
+  </si>
+  <si>
     <t>宝盈先进制造灵活配置混合C</t>
   </si>
   <si>
-    <t>宝盈鸿利收益灵活配置混合A</t>
-  </si>
-  <si>
-    <t>宝盈鸿利收益灵活配置混合C</t>
-  </si>
-  <si>
     <t>嘉实新优选灵活配置混合</t>
   </si>
   <si>
-    <t>宝盈研究精选混合A</t>
-  </si>
-  <si>
-    <t>宝盈研究精选混合C</t>
+    <t>34.45</t>
+  </si>
+  <si>
+    <t>17.20</t>
+  </si>
+  <si>
+    <t>15.32</t>
+  </si>
+  <si>
+    <t>4.87</t>
+  </si>
+  <si>
+    <t>2.02</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>69.57</t>
   </si>
   <si>
     <t>77.87</t>
   </si>
   <si>
-    <t>69.57</t>
+    <t>62.13</t>
   </si>
   <si>
     <t>34.43</t>
   </si>
   <si>
-    <t>62.13</t>
+    <t>4.40</t>
   </si>
   <si>
     <t>5.49</t>
   </si>
   <si>
-    <t>4.40</t>
+    <t>2.94</t>
   </si>
   <si>
     <t>0.94</t>
   </si>
   <si>
-    <t>2.94</t>
+    <t>1.5158</t>
+  </si>
+  <si>
+    <t>0.9443</t>
+  </si>
+  <si>
+    <t>0.4504</t>
+  </si>
+  <si>
+    <t>0.1432</t>
+  </si>
+  <si>
+    <t>0.0889</t>
+  </si>
+  <si>
+    <t>0.0264</t>
+  </si>
+  <si>
+    <t>0.0005</t>
   </si>
 </sst>
 </file>
@@ -452,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,145 +522,193 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300919-中伟股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300919-中伟股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1657,4 +1658,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4811</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300919-中伟股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300919-中伟股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1866,4 +1867,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.630000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300919-中伟股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300919-中伟股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1875,7 +1876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1886,17 +1887,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1906,14 +1927,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5600000000000001</v>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6618</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1922,14 +1965,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.630000000000001</v>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6471</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1938,13 +2003,667 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4103</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3102</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>63.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.630000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>3.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300919-中伟股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300919-中伟股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2578,7 +2579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2589,17 +2590,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2609,14 +2630,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.82</v>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9376</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2625,14 +2668,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5600000000000001</v>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9607</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2641,14 +2706,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.630000000000001</v>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8850</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2657,13 +2744,1137 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6960</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6919</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5282</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3931</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3808</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>62.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3192</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2448</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006398</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>65.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013204</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006399</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>27.54</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013205</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.630000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300919-中伟股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300919-中伟股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3773,7 +3774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3784,17 +3785,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3804,14 +3825,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.34</v>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>53.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2347</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3820,14 +3863,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.82</v>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7294</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3836,14 +3901,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5600000000000001</v>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5927</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3852,14 +3939,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.630000000000001</v>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5548</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -3868,13 +3977,773 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5095</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4279</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2746</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1886</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>660004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银策略价值混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>67.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>70.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>70.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014498</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.630000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300919-中伟股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300919-中伟股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,319 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>213001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>宝盈鸿利收益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>34.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>69.57</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.5158</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.21</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000924</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>宝盈先进制造灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17.20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>77.87</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9443</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.34</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008227</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>宝盈研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15.32</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>62.13</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4504</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.82</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008228</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>宝盈研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>62.13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1432</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007581</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>宝盈鸿利收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>69.57</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0889</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007579</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>宝盈先进制造灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>77.87</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0264</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002149</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实新优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>34.43</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -778,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -829,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>213001</t>
+          <t>001606</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈鸿利收益灵活配置混合A</t>
+          <t>农银汇理工业4.0灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.56</t>
+          <t>53.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>85.56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9230</t>
+          <t>2.2347</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -867,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001811</t>
+          <t>213008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧明睿新常态混合A</t>
+          <t>宝盈资源优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>67.20</t>
+          <t>11.67</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.12</t>
+          <t>87.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.5469</t>
+          <t>0.7294</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -905,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000924</t>
+          <t>000698</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈先进制造灵活配置混合A</t>
+          <t>宝盈科技30灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14.46</t>
+          <t>13.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>88.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8705</t>
+          <t>0.5927</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -943,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008227</t>
+          <t>213006</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈研究精选混合A</t>
+          <t>宝盈核心优势灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.37</t>
+          <t>10.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>74.27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8570</t>
+          <t>0.5548</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -981,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005630</t>
+          <t>000924</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安研究精选混合</t>
+          <t>宝盈先进制造灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>10.15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.27</t>
+          <t>91.63</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3139</t>
+          <t>0.5095</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1019,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008228</t>
+          <t>660001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>宝盈研究精选混合C</t>
+          <t>农银行业成长混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>17.68</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>83.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2256</t>
+          <t>0.4279</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1057,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>673060</t>
+          <t>000462</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>西部利得景瑞灵活配置混合A</t>
+          <t>农银主题轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.74</t>
+          <t>87.98</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1544</t>
+          <t>0.2746</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1095,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005765</t>
+          <t>660005</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧明睿新常态混合C</t>
+          <t>农银中小盘混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.12</t>
+          <t>80.85</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1486</t>
+          <t>0.1941</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1133,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007581</t>
+          <t>010383</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>宝盈鸿利收益灵活配置混合C</t>
+          <t>宝盈基础产业混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>89.81</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1365</t>
+          <t>0.1886</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1171,36 +981,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>660015</t>
+          <t>660004</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>农银行业轮动混合</t>
+          <t>农银策略价值混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>80.81</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0818</t>
+          <t>0.1550</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1209,36 +1019,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004341</t>
+          <t>000039</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>农银汇理尖端科技灵活配置混合</t>
+          <t>农银高增长混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.77</t>
+          <t>89.27</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0628</t>
+          <t>0.1521</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1257,22 +1067,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>56.02</t>
+          <t>67.87</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0618</t>
+          <t>0.0811</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1285,36 +1095,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005815</t>
+          <t>007579</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>农银汇理睿选灵活配置混合</t>
+          <t>宝盈先进制造灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>91.63</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0524</t>
+          <t>0.0331</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1323,36 +1133,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>620002</t>
+          <t>000066</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金元顺安成长动力混合</t>
+          <t>诺安鸿鑫混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>79.25</t>
+          <t>79.06</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0387</t>
+          <t>0.0193</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1361,36 +1171,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009258</t>
+          <t>005638</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>西部利得景瑞灵活配置混合C</t>
+          <t>农银汇理量化智慧动力混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.74</t>
+          <t>86.53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0381</t>
+          <t>0.0188</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1399,36 +1209,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>007579</t>
+          <t>002567</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>宝盈先进制造灵活配置混合C</t>
+          <t>大成国家安全主题灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>66.96</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.02</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0379</t>
+          <t>0.0152</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1437,36 +1247,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>003004</t>
+          <t>010384</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>招商睿祥定期开放混合</t>
+          <t>宝盈基础产业混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>46.77</t>
+          <t>89.81</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0253</t>
+          <t>0.0132</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1475,36 +1285,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>000679</t>
+          <t>000241</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>招商丰利灵活配置混合A</t>
+          <t>宝盈核心优势灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>86.83</t>
+          <t>74.27</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0237</t>
+          <t>0.0130</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1513,36 +1323,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>620004</t>
+          <t>007257</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金元顺安价值增长混合</t>
+          <t>凯石沣混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>70.42</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0151</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1551,36 +1361,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005638</t>
+          <t>007258</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>农银汇理量化智慧动力混合</t>
+          <t>凯石沣混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>81.53</t>
+          <t>70.42</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0107</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1589,74 +1399,34 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>167002</t>
+          <t>014498</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>平安鼎越灵活配置混合（LOF）</t>
+          <t>诺安鸿鑫混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>79.06</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002416</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>招商丰利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>86.83</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1691,7 +1461,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1721,36 +1491,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>871003</t>
+          <t>000828</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发资管价值增长灵活配置混合</t>
+          <t>泰达宏利转型机遇股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.92</t>
+          <t>62.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>94.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4811</t>
+          <t>2.9376</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1759,36 +1529,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005815</t>
+          <t>012382</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>农银汇理睿选灵活配置混合</t>
+          <t>泰达宏利新兴景气龙头混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>20.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.69</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0480</t>
+          <t>0.9607</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1797,36 +1567,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001135</t>
+          <t>162201</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>益民品质升级灵活配置混合</t>
+          <t>泰达宏利成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>18.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.66</t>
+          <t>94.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0243</t>
+          <t>0.8850</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1835,36 +1605,1022 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160415</t>
+          <t>213003</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安量化多因子混合（LOF）</t>
+          <t>宝盈策略增长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>10.28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>94.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.6960</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6919</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5282</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3931</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3808</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>62.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3192</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2448</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000462</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银主题轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006398</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000039</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银高增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>65.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013204</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>32.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006399</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>27.54</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013205</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2580,7 +3336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2601,7 +3357,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2631,36 +3387,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000828</t>
+          <t>871003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利转型机遇股票</t>
+          <t>广发资管价值增长灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>62.77</t>
+          <t>9.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.9376</t>
+          <t>0.4811</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2669,36 +3425,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012382</t>
+          <t>005815</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利新兴景气龙头混合A</t>
+          <t>农银汇理睿选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.31</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>85.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9607</t>
+          <t>0.0480</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2707,36 +3463,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>162201</t>
+          <t>001135</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰达宏利成长混合</t>
+          <t>益民品质升级灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.75</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>86.66</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8850</t>
+          <t>0.0243</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2745,1022 +3501,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>213003</t>
+          <t>160415</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈策略增长混合</t>
+          <t>华安量化多因子混合（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.28</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6960</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001128</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>宝盈新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>19.94</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.76</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6919</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>213008</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>宝盈资源优选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.31</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>81.52</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5282</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
         <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010135</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰达宏利高研发创新6个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3931</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>213006</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>宝盈核心优势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10.10</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>74.06</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3808</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010201</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>农银汇理智增一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>9.82</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>62.05</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3192</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>213002</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>宝盈泛沿海增长混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2448</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000462</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>农银主题轮动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>86.71</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1843</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>160919</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>大成产业升级股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>87.76</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1663</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>660015</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>农银行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>76.32</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1647</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010383</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>宝盈基础产业混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.39</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1410</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010136</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>泰达宏利高研发创新6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1296</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006398</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>宝盈祥颐定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>27.54</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1082</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>012383</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>泰达宏利新兴景气龙头混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1050</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>000039</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>农银高增长混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>77.87</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0931</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>000259</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>农银区间收益混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>65.11</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0714</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008422</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中融研发创新混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>32.66</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0457</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>013204</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>恒生前海恒源天利债A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>21.66</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005638</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>农银汇理量化智慧动力混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>81.65</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001983</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中邮低碳经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>83.92</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0155</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>008423</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中融研发创新混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>32.66</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>010384</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>宝盈基础产业混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>91.39</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>000241</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>宝盈核心优势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>74.06</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>006399</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>宝盈祥颐定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>27.54</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>005628</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>汇安趋势动力股票A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.56</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>005629</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>汇安趋势动力股票C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>91.56</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>013205</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>恒生前海恒源天利债C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>21.66</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3774,7 +3544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3795,7 +3565,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3825,36 +3595,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001606</t>
+          <t>213001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>农银汇理工业4.0灵活配置混合</t>
+          <t>宝盈鸿利收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>53.08</t>
+          <t>35.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.56</t>
+          <t>94.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2347</t>
+          <t>2.9230</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3863,36 +3633,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>213008</t>
+          <t>001811</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈资源优选混合</t>
+          <t>中欧明睿新常态混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.67</t>
+          <t>67.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.53</t>
+          <t>91.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7294</t>
+          <t>2.5469</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3901,36 +3671,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000698</t>
+          <t>000924</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>宝盈科技30灵活配置混合</t>
+          <t>宝盈先进制造灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.88</t>
+          <t>14.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.88</t>
+          <t>89.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5927</t>
+          <t>0.8705</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3939,36 +3709,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>213006</t>
+          <t>008227</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宝盈核心优势灵活配置混合A</t>
+          <t>宝盈研究精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.67</t>
+          <t>13.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>74.27</t>
+          <t>93.21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5548</t>
+          <t>0.8570</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3977,36 +3747,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000924</t>
+          <t>005630</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>宝盈先进制造灵活配置混合A</t>
+          <t>华安研究精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.15</t>
+          <t>7.79</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.63</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5095</t>
+          <t>0.3139</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -4015,36 +3785,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>660001</t>
+          <t>008228</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>农银行业成长混合A</t>
+          <t>宝盈研究精选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>17.68</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.00</t>
+          <t>93.21</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4279</t>
+          <t>0.2256</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -4053,36 +3823,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000462</t>
+          <t>673060</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>农银主题轮动灵活配置混合</t>
+          <t>西部利得景瑞灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.98</t>
+          <t>92.74</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2746</t>
+          <t>0.1544</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -4091,36 +3861,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>660005</t>
+          <t>005765</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>农银中小盘混合</t>
+          <t>中欧明睿新常态混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>80.85</t>
+          <t>91.12</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1941</t>
+          <t>0.1486</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -4129,36 +3899,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010383</t>
+          <t>007581</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>宝盈基础产业混合A</t>
+          <t>宝盈鸿利收益灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.81</t>
+          <t>94.34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1886</t>
+          <t>0.1365</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -4167,36 +3937,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>660004</t>
+          <t>660015</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>农银策略价值混合</t>
+          <t>农银行业轮动混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>80.81</t>
+          <t>90.35</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1550</t>
+          <t>0.0818</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -4205,36 +3975,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000039</t>
+          <t>004341</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>农银高增长混合</t>
+          <t>农银汇理尖端科技灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>92.77</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1521</t>
+          <t>0.0628</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -4253,22 +4023,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>67.87</t>
+          <t>56.02</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0811</t>
+          <t>0.0618</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -4281,36 +4051,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007579</t>
+          <t>005815</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>宝盈先进制造灵活配置混合C</t>
+          <t>农银汇理睿选灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.63</t>
+          <t>92.31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0331</t>
+          <t>0.0524</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -4319,36 +4089,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000066</t>
+          <t>620002</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>诺安鸿鑫混合</t>
+          <t>金元顺安成长动力混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>79.06</t>
+          <t>79.25</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>4.16</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0193</t>
+          <t>0.0387</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -4357,36 +4127,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005638</t>
+          <t>009258</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>农银汇理量化智慧动力混合</t>
+          <t>西部利得景瑞灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>86.53</t>
+          <t>92.74</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0188</t>
+          <t>0.0381</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -4395,36 +4165,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002567</t>
+          <t>007579</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>大成国家安全主题灵活配置混合</t>
+          <t>宝盈先进制造灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>66.96</t>
+          <t>89.64</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>6.02</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0152</t>
+          <t>0.0379</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -4433,36 +4203,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010384</t>
+          <t>003004</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>宝盈基础产业混合C</t>
+          <t>招商睿祥定期开放混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>89.81</t>
+          <t>46.77</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0132</t>
+          <t>0.0253</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -4471,36 +4241,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>000241</t>
+          <t>000679</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>宝盈核心优势灵活配置混合C</t>
+          <t>招商丰利灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>74.27</t>
+          <t>86.83</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0130</t>
+          <t>0.0237</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -4509,36 +4279,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>007257</t>
+          <t>620004</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>凯石沣混合A</t>
+          <t>金元顺安价值增长混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>70.42</t>
+          <t>93.44</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0151</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -4547,36 +4317,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007258</t>
+          <t>005638</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>凯石沣混合C</t>
+          <t>农银汇理量化智慧动力混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>70.42</t>
+          <t>81.53</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0107</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -4585,34 +4355,74 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>014498</t>
+          <t>167002</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>诺安鸿鑫混合C</t>
+          <t>平安鼎越灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>79.06</t>
+          <t>91.25</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
       </c>
       <c r="H22" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4626,128 +4436,318 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.21</v>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5158</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.34</v>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9443</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.82</v>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4504</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>22</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.630000000000001</v>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.17</v>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300919-中伟股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300919-中伟股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>6.21</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>9.34</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>2.82</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>8.630000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.630000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.17</v>
       </c>
     </row>
@@ -583,6 +600,552 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7447</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>35.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5927</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>213008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈资源优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4910</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3655</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010383</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010384</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈基础产业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014536</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>016594</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>35.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1434,7 +1997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2628,7 +3191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3330,7 +3893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3538,7 +4101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4430,7 +4993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300919-中伟股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300919-中伟股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>4.58</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>6.21</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>9.34</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>2.82</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>8.630000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.630000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.17</v>
       </c>
     </row>
@@ -600,6 +617,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001606</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理工业4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2665</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8079</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4194</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000259</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银区间收益混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005638</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银汇理量化智慧动力混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1145,7 +1560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1997,7 +2412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3191,7 +3606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3893,7 +4308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4101,7 +4516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4993,7 +5408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
